--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyamoto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E528B-0F95-4FB8-B1F4-3CDB1724958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89C7C1-8E82-495C-BA24-A73E7ADA2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{2551613F-6FDD-43F9-970E-2B29A13B6E58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2551613F-6FDD-43F9-970E-2B29A13B6E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,34 +55,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${item1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item3}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中 太郎</t>
+    <t>黒田　アイ</t>
     <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加藤 光子</t>
+      <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目C（項目名変更可）</t>
     <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミツコ</t>
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒田　コウ</t>
+    <rPh sb="0" eb="2">
+      <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目D（項目名変更可）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目E（項目名変更可）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,16 +482,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F92BC-914F-417A-AFC2-534CFB1064DD}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,32 +503,32 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>25111000</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>25111001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>25111002</v>
+        <v>25211000</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>70</v>
